--- a/Deliverables/D05/Costs budget D05.xlsx
+++ b/Deliverables/D05/Costs budget D05.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DP\Carpeta compartida\Repository\DPGrupo11\Deliverables\D05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6AD1B6-E4A5-4798-89A9-9AE1EADDF99A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF251B2C-F6AC-4235-B0EE-F366F1A694B8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{9B1D1F48-7E6A-4441-A4CA-6027AF884C6B}"/>
   </bookViews>
@@ -547,7 +547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFEEDDB3-9592-43B8-BD09-23AA9C1008B9}">
   <dimension ref="B1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -581,7 +581,7 @@
       </c>
       <c r="C4" s="5">
         <f>(((I15-1)*I10+I11)/6)*I17</f>
-        <v>424.15106666666662</v>
+        <v>1927.3223499999999</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
@@ -629,7 +629,7 @@
       </c>
       <c r="C9" s="10">
         <f>SUM(C4:C7)</f>
-        <v>467.08035959595952</v>
+        <v>1970.2516429292928</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
@@ -651,7 +651,7 @@
       </c>
       <c r="C11" s="7">
         <f>I8-C9</f>
-        <v>1119.5196404040403</v>
+        <v>-383.65164292929285</v>
       </c>
       <c r="H11" t="s">
         <v>12</v>
@@ -669,7 +669,7 @@
       </c>
       <c r="C12" s="11">
         <f>C9/I8</f>
-        <v>0.29439074725574155</v>
+        <v>1.2418074139224082</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
@@ -710,7 +710,7 @@
         <v>6</v>
       </c>
       <c r="I17" s="3">
-        <v>32.08</v>
+        <v>145.77000000000001</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>15</v>
